--- a/data/evaluation/evaluation_Center_Spring_Zucchini.xlsx
+++ b/data/evaluation/evaluation_Center_Spring_Zucchini.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1141.139166666667</v>
+        <v>1128.539166666667</v>
       </c>
       <c r="C3" t="n">
-        <v>6912378.273847222</v>
+        <v>6909203.073847222</v>
       </c>
       <c r="D3" t="n">
-        <v>2629.140215706881</v>
+        <v>2628.536298750166</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1116144633749097</v>
+        <v>-0.1111038434255556</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1157.532018235931</v>
+        <v>1168.964084080087</v>
       </c>
       <c r="C4" t="n">
-        <v>6926847.983592493</v>
+        <v>6938607.246492875</v>
       </c>
       <c r="D4" t="n">
-        <v>2631.890572115888</v>
+        <v>2634.123620199492</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1139414104829024</v>
+        <v>-0.1158324769437973</v>
       </c>
     </row>
     <row r="5">
